--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makzarak\Desktop\Bench\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD030BE-267E-48B2-9925-05E5CB925AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230DACA1-B6AB-4D2D-8F54-08789401AF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>ApiCalls</t>
+  </si>
+  <si>
+    <t>getSingleUserCall</t>
+  </si>
+  <si>
+    <t>postCreateUserCall</t>
+  </si>
+  <si>
+    <t>TC_014_GET_CALL</t>
+  </si>
+  <si>
+    <t>putUpdateUserCall</t>
+  </si>
+  <si>
+    <t>deleteUserCall</t>
   </si>
 </sst>
 </file>
@@ -207,10 +228,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -902,15 +929,76 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD030BE-267E-48B2-9925-05E5CB925AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B083714B-4394-4BE7-98C5-2B6778B1291B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>PARALLEL</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,10 +545,11 @@
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,9 +571,12 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -588,9 +598,11 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -601,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -612,9 +624,11 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -636,9 +650,11 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -660,9 +676,11 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -684,9 +702,11 @@
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -708,9 +728,11 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -732,9 +754,11 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -756,9 +780,11 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -780,9 +806,11 @@
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -804,9 +832,11 @@
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -828,9 +858,11 @@
       <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -852,9 +884,11 @@
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -876,9 +910,11 @@
       <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -902,7 +938,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makzarak\Desktop\Bench\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230DACA1-B6AB-4D2D-8F54-08789401AF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93A7A1B-FA70-4C46-B820-7F1BBC3CA499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -178,13 +178,16 @@
   </si>
   <si>
     <t>deleteUserCall</t>
+  </si>
+  <si>
+    <t>API_DATA_FILE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +206,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -554,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,7 +575,7 @@
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
@@ -945,11 +954,15 @@
       <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -965,8 +978,14 @@
       <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -982,8 +1001,14 @@
       <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -999,8 +1024,15 @@
       <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makzarak\Desktop\example\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B083714B-4394-4BE7-98C5-2B6778B1291B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097B8EB-9730-449C-85B7-BE85D41E69ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -163,6 +163,30 @@
   </si>
   <si>
     <t>PARALLEL</t>
+  </si>
+  <si>
+    <t>TC_014_GET_CALL</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>ApiCalls</t>
+  </si>
+  <si>
+    <t>getSingleUserCall</t>
+  </si>
+  <si>
+    <t>API_DATA_FILE</t>
+  </si>
+  <si>
+    <t>postCreateUserCall</t>
+  </si>
+  <si>
+    <t>putUpdateUserCall</t>
+  </si>
+  <si>
+    <t>deleteUserCall</t>
   </si>
 </sst>
 </file>
@@ -531,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -936,17 +960,113 @@
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makzarak\Desktop\example\Framework\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097B8EB-9730-449C-85B7-BE85D41E69ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0CDFE4-DD66-4614-97ED-DBFA6705419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
+    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7360" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0CDFE4-DD66-4614-97ED-DBFA6705419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B38BFC0-BA59-414F-9DE8-4474B655C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7360" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -57,9 +57,6 @@
     <t>TC_DATASHEET</t>
   </si>
   <si>
-    <t>TC_001_AMAZON_CREATEACCOUNT</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -69,33 +66,12 @@
     <t>AMAZONTest</t>
   </si>
   <si>
-    <t>Test_Createaccount</t>
-  </si>
-  <si>
     <t>data.xlsx</t>
   </si>
   <si>
     <t>Sheet1</t>
   </si>
   <si>
-    <t>TC_002_AMAZON_LOGIN</t>
-  </si>
-  <si>
-    <t>Test_Login</t>
-  </si>
-  <si>
-    <t>TC_003_AMAZON_ADD TO CART</t>
-  </si>
-  <si>
-    <t>Test_Cart</t>
-  </si>
-  <si>
-    <t>TC_004_AMAZON_SEARCH ITEM</t>
-  </si>
-  <si>
-    <t>Test_Search item</t>
-  </si>
-  <si>
     <t>TC_005_AMAZON_WISHLIST</t>
   </si>
   <si>
@@ -159,9 +135,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
     <t>PARALLEL</t>
   </si>
   <si>
@@ -187,13 +160,58 @@
   </si>
   <si>
     <t>deleteUserCall</t>
+  </si>
+  <si>
+    <t>TC_002_VERIFY_HOMEPAGE</t>
+  </si>
+  <si>
+    <t>TestLoginPage</t>
+  </si>
+  <si>
+    <t>Amazon_Login</t>
+  </si>
+  <si>
+    <t>Verify_Homepage_Title</t>
+  </si>
+  <si>
+    <t>TC_001_LOGIN</t>
+  </si>
+  <si>
+    <t>TC_015_POST_CALL</t>
+  </si>
+  <si>
+    <t>TC_016_PUT_CALL</t>
+  </si>
+  <si>
+    <t>TC_017_DELETE_CALL</t>
+  </si>
+  <si>
+    <t>TC_003_AMAZON_SEARCH ITEM</t>
+  </si>
+  <si>
+    <t>TC_004_AMAZON_ADD TO CART</t>
+  </si>
+  <si>
+    <t>TestAmazonSearchPage</t>
+  </si>
+  <si>
+    <t>SearchOperation</t>
+  </si>
+  <si>
+    <t>ClickAddToCart</t>
+  </si>
+  <si>
+    <t>TC_005_PROCEED_TO_BUY</t>
+  </si>
+  <si>
+    <t>proceedToBuy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +230,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +592,7 @@
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
     <col min="7" max="7" width="19.1796875" customWidth="1"/>
     <col min="8" max="8" width="27.453125" customWidth="1"/>
   </cols>
@@ -596,479 +620,506 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makzarak\Desktop\example\Framework\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makzarak\Desktop\git\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097B8EB-9730-449C-85B7-BE85D41E69ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49F603C-A3F8-4D53-8CE1-0D24513A2605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>deleteUserCall</t>
+  </si>
+  <si>
+    <t>TC_015_POST_CALL</t>
+  </si>
+  <si>
+    <t>TC_016_PUT_CALL</t>
+  </si>
+  <si>
+    <t>TC_017_DELETE_CALL</t>
+  </si>
+  <si>
+    <t>TC_018_GET_CALL</t>
+  </si>
+  <si>
+    <t>getListUsersCall</t>
   </si>
 </sst>
 </file>
@@ -237,10 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -965,7 +983,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -991,8 +1009,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>43</v>
+      <c r="A17" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -1017,8 +1035,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>43</v>
+      <c r="A18" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
@@ -1043,8 +1061,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>43</v>
+      <c r="A19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
@@ -1065,6 +1083,32 @@
         <v>47</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B38BFC0-BA59-414F-9DE8-4474B655C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38240D8E-94E9-489C-8E66-356DD27F366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -63,73 +63,10 @@
     <t>Web</t>
   </si>
   <si>
-    <t>AMAZONTest</t>
-  </si>
-  <si>
     <t>data.xlsx</t>
   </si>
   <si>
     <t>Sheet1</t>
-  </si>
-  <si>
-    <t>TC_005_AMAZON_WISHLIST</t>
-  </si>
-  <si>
-    <t>Test_Wishlist</t>
-  </si>
-  <si>
-    <t>TC_007_AMAZON_ADD ACCOUNT</t>
-  </si>
-  <si>
-    <t>Test_Add Account</t>
-  </si>
-  <si>
-    <t>TC_008_AMAZON_LOGOUT</t>
-  </si>
-  <si>
-    <t>Test_Logout</t>
-  </si>
-  <si>
-    <t>TC_009_AMAZON_RETURNS AND ORDERS</t>
-  </si>
-  <si>
-    <t>Test_Returns and orders</t>
-  </si>
-  <si>
-    <t>TC_010_AMAZON_ORDERS</t>
-  </si>
-  <si>
-    <t>Test_orders</t>
-  </si>
-  <si>
-    <t>TC_011_AMAZON_BUY AGAIN</t>
-  </si>
-  <si>
-    <t>Test_buy again</t>
-  </si>
-  <si>
-    <t>TC_012_AMAZON_NOT YET SHIPPED</t>
-  </si>
-  <si>
-    <t>Test_not yet shipped</t>
-  </si>
-  <si>
-    <t>TC_013_AMAZON_CANCELLED ORDERS</t>
-  </si>
-  <si>
-    <t>Test_cancelled orders</t>
-  </si>
-  <si>
-    <t>TC_013_AMAZON_TRACK PACKAGE</t>
-  </si>
-  <si>
-    <t>Test_track package</t>
-  </si>
-  <si>
-    <t>TC_013_AMAZON_SEARCH ORDERS</t>
-  </si>
-  <si>
-    <t>Test_search orders</t>
   </si>
   <si>
     <t>YES</t>
@@ -579,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,31 +557,31 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
@@ -652,25 +589,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>7</v>
@@ -678,25 +615,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>7</v>
@@ -704,25 +641,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>7</v>
@@ -730,25 +667,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>7</v>
@@ -756,365 +693,105 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
+      <c r="G10" t="s">
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE199B0-1D16-4D55-A51D-017E9380C646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9D7FB-8B46-4B9A-BAF1-9C3440FEDA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -63,18 +63,12 @@
     <t>Web</t>
   </si>
   <si>
-    <t>data.xlsx</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
     <t>PARALLEL</t>
   </si>
   <si>
-    <t>TC_014_GET_CALL</t>
-  </si>
-  <si>
     <t>API</t>
   </si>
   <si>
@@ -96,24 +90,9 @@
     <t>deleteUserCall</t>
   </si>
   <si>
-    <t>TC_015_POST_CALL</t>
-  </si>
-  <si>
-    <t>TC_016_PUT_CALL</t>
-  </si>
-  <si>
-    <t>TC_017_DELETE_CALL</t>
-  </si>
-  <si>
-    <t>TC_018_GET_CALL</t>
-  </si>
-  <si>
     <t>getListUsersCall</t>
   </si>
   <si>
-    <t>TC_001_LOGIN</t>
-  </si>
-  <si>
     <t>TC_002_VERIFY_HOMEPAGE</t>
   </si>
   <si>
@@ -132,22 +111,61 @@
     <t>TestAmazonSearchPage</t>
   </si>
   <si>
-    <t>Amazon_Login</t>
-  </si>
-  <si>
-    <t>Verify_Homepage_Title</t>
-  </si>
-  <si>
-    <t>proceedToBuy</t>
-  </si>
-  <si>
-    <t>ClickAddToCart</t>
-  </si>
-  <si>
-    <t>SearchOperation</t>
-  </si>
-  <si>
     <t>DATA_FILE</t>
+  </si>
+  <si>
+    <t>amazon_login</t>
+  </si>
+  <si>
+    <t>verify_homepage_title</t>
+  </si>
+  <si>
+    <t>search_operation</t>
+  </si>
+  <si>
+    <t>click_add_to_cart</t>
+  </si>
+  <si>
+    <t>proceed_to_buy</t>
+  </si>
+  <si>
+    <t>test_orders</t>
+  </si>
+  <si>
+    <t>test_lang</t>
+  </si>
+  <si>
+    <t>DATAFILE.xlsx</t>
+  </si>
+  <si>
+    <t>TC_API_001_GET_CALL</t>
+  </si>
+  <si>
+    <t>TC_API_002_POST_SINGLE_USER</t>
+  </si>
+  <si>
+    <t>TC_API_003_PUT_CALL</t>
+  </si>
+  <si>
+    <t>TC_API_004_DELETE_CALL</t>
+  </si>
+  <si>
+    <t>TC_API_005_GET_CALL</t>
+  </si>
+  <si>
+    <t>TC_001_LOGIN_Positive</t>
+  </si>
+  <si>
+    <t>TC_001_LOGIN_Negative</t>
+  </si>
+  <si>
+    <t>TestHomePage</t>
+  </si>
+  <si>
+    <t>TC_007_CLICK_ON_ORDERS</t>
+  </si>
+  <si>
+    <t>TC_008_CLICK_ON_LANGUAGE_OPTIONS</t>
   </si>
 </sst>
 </file>
@@ -198,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,6 +230,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,39 +588,39 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
+      <c r="A3" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -608,16 +629,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>7</v>
@@ -625,7 +646,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -633,17 +654,17 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>7</v>
@@ -651,7 +672,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -660,185 +681,263 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9D7FB-8B46-4B9A-BAF1-9C3440FEDA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF329F2-E435-4D96-BD65-2C5C070F11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF329F2-E435-4D96-BD65-2C5C070F11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F585464A-6848-417D-A713-7AF0B3C23A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>TC_API_004_DELETE_CALL</t>
   </si>
   <si>
-    <t>TC_API_005_GET_CALL</t>
-  </si>
-  <si>
     <t>TC_001_LOGIN_Positive</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>TC_008_CLICK_ON_LANGUAGE_OPTIONS</t>
+  </si>
+  <si>
+    <t>TC_API_005_GET_ALL_USER</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,10 +594,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -649,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -667,7 +667,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -693,7 +693,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -750,16 +750,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -776,16 +776,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -805,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -823,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -831,7 +831,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -849,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -857,7 +857,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -874,8 +874,8 @@
       <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -883,7 +883,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -900,16 +900,16 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -926,8 +926,8 @@
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F585464A-6848-417D-A713-7AF0B3C23A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E67828-B37D-4C86-9CA9-93DF0B9C836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>test_orders</t>
   </si>
   <si>
-    <t>test_lang</t>
-  </si>
-  <si>
     <t>DATAFILE.xlsx</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>TC_API_005_GET_ALL_USER</t>
+  </si>
+  <si>
+    <t>test_language</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +594,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -609,7 +609,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>25</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -635,7 +635,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>25</v>
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>25</v>
@@ -687,7 +687,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>25</v>
@@ -713,7 +713,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>25</v>
@@ -739,7 +739,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -759,13 +759,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>25</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -785,13 +785,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>25</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -895,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -921,7 +921,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E67828-B37D-4C86-9CA9-93DF0B9C836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D4ACA-791B-4C65-94E8-B19E8564478F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -805,7 +805,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -831,7 +831,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -857,7 +857,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -909,7 +909,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D4ACA-791B-4C65-94E8-B19E8564478F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D709BD4-1E6B-462F-8FF6-54BFF9618F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>TC_DATASHEET</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>test_language</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,346 +588,346 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D709BD4-1E6B-462F-8FF6-54BFF9618F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD0AA8-900F-428C-B799-EE203004D241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,7 +600,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -615,7 +618,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -641,7 +644,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -649,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -667,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -675,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -693,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -719,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -745,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -771,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -797,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -823,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -849,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -857,7 +860,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -875,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -883,7 +886,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -901,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -927,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD0AA8-900F-428C-B799-EE203004D241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F454DAA9-01D5-4E74-9F5C-AEEB1A04C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -57,6 +57,9 @@
     <t>TC_DATASHEET</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Web</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,346 +591,346 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F454DAA9-01D5-4E74-9F5C-AEEB1A04C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A8524-4AD4-450B-B031-85EC7EC7A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -57,9 +57,6 @@
     <t>TC_DATASHEET</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -169,6 +166,30 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>TC_009_GO_TO_HELP_PAGE</t>
+  </si>
+  <si>
+    <t>go_to_help</t>
+  </si>
+  <si>
+    <t>TC_010_Go_TO_CONTACT_US_PAGE</t>
+  </si>
+  <si>
+    <t>go_to_contact_us_page</t>
+  </si>
+  <si>
+    <t>TC_011_CHANGE_COUNTRY</t>
+  </si>
+  <si>
+    <t>test_change_country</t>
+  </si>
+  <si>
+    <t>TC_012_ADD_NEW_ADDRESS_PAGE</t>
+  </si>
+  <si>
+    <t>add_new_address</t>
   </si>
 </sst>
 </file>
@@ -550,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,356 +612,460 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
+      <c r="A12" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
+      <c r="A13" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A8524-4AD4-450B-B031-85EC7EC7A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A02AA-89A2-43E4-AB6B-2A3ABC41352A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>add_new_address</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TC_013_GO_TO_NEW_RELEASE_PAGE</t>
+  </si>
+  <si>
+    <t>go_to_new_release_page</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -571,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,6 +605,7 @@
     <col min="6" max="6" width="20.08984375" customWidth="1"/>
     <col min="7" max="7" width="19.1796875" customWidth="1"/>
     <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
@@ -614,14 +633,16 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -639,7 +660,10 @@
         <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -665,7 +689,10 @@
         <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -673,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -691,7 +718,10 @@
         <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -717,7 +747,10 @@
         <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -743,7 +776,10 @@
         <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -769,7 +805,10 @@
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -777,7 +816,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -795,7 +834,10 @@
         <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -803,7 +845,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -822,6 +864,9 @@
       </c>
       <c r="H9" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -829,7 +874,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -848,6 +893,9 @@
       </c>
       <c r="H10" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -875,13 +923,16 @@
       <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I11" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -900,6 +951,9 @@
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -927,36 +981,42 @@
       <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I13" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -964,28 +1024,31 @@
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I15" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
+      <c r="A16" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -994,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>31</v>
@@ -1005,13 +1068,16 @@
       <c r="H16" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1020,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>31</v>
@@ -1031,41 +1097,76 @@
       <c r="H17" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A02AA-89A2-43E4-AB6B-2A3ABC41352A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DC997-0734-41B3-ACBD-3842AE46014F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
   <si>
     <t>TC_NAME</t>
   </si>
@@ -199,15 +199,6 @@
   </si>
   <si>
     <t>go_to_new_release_page</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -589,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,10 +596,9 @@
     <col min="6" max="6" width="20.08984375" customWidth="1"/>
     <col min="7" max="7" width="19.1796875" customWidth="1"/>
     <col min="8" max="8" width="27.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,11 +623,8 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
@@ -660,13 +647,10 @@
         <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -689,18 +673,15 @@
         <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -718,13 +699,10 @@
         <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -749,16 +727,13 @@
       <c r="H5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -776,13 +751,10 @@
         <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -805,13 +777,10 @@
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -834,18 +803,15 @@
         <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -865,16 +831,13 @@
       <c r="H9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -894,16 +857,13 @@
       <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -923,11 +883,8 @@
       <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -952,11 +909,8 @@
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -981,11 +935,8 @@
       <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1010,11 +961,8 @@
       <c r="H14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1039,16 +987,13 @@
       <c r="H15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1068,16 +1013,13 @@
       <c r="H16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1097,16 +1039,13 @@
       <c r="H17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1126,16 +1065,13 @@
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1155,17 +1091,14 @@
       <c r="H19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
     </row>
   </sheetData>

--- a/resources/RUNNERFILE.xlsx
+++ b/resources/RUNNERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learning\Framework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DC997-0734-41B3-ACBD-3842AE46014F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32997EF-6621-4959-B857-D831FD768E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F90B-5677-47E1-8EDD-AF691CC5D535}"/>
   </bookViews>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC99E92-75B1-4388-8A79-80A56A3BF80F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -759,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
@@ -811,7 +811,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -837,7 +837,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -863,7 +863,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -941,7 +941,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -967,7 +967,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1019,7 +1019,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1045,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1071,7 +1071,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
